--- a/project2/report/dados/Tempos.xlsx
+++ b/project2/report/dados/Tempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\Documents\Escola\Engenharia Informática\5ºAno\1ºSemestre\Computação de Alto Desempenho\Projetos\ProjetosCAD\project2\report\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D7ACB-382E-436A-9FEF-7644F6F9D9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28804DBC-6C8B-4E05-AA16-EBCFFFC035F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{6046D603-8F72-4B98-AF66-112E83401992}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6046D603-8F72-4B98-AF66-112E83401992}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -106,8 +106,8 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A7B2A-1526-4CDB-84A6-7D06D3F4B75A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,7 +430,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -452,8 +452,11 @@
       <c r="G1" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>144.62270000000001</v>
       </c>
@@ -469,8 +472,17 @@
       <c r="E2" s="2">
         <v>10.235559</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2">
+        <v>10.797729</v>
+      </c>
+      <c r="G2">
+        <v>8.6426719999999992</v>
+      </c>
+      <c r="H2">
+        <v>7.5365580000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>144.83444399999999</v>
       </c>
@@ -486,8 +498,17 @@
       <c r="E3" s="2">
         <v>10.309411000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3">
+        <v>10.795088</v>
+      </c>
+      <c r="G3">
+        <v>8.5726130000000005</v>
+      </c>
+      <c r="H3">
+        <v>7.9841420000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>144.65252899999999</v>
       </c>
@@ -503,8 +524,17 @@
       <c r="E4" s="2">
         <v>10.159136999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4">
+        <v>10.769329000000001</v>
+      </c>
+      <c r="G4">
+        <v>8.4481959999999994</v>
+      </c>
+      <c r="H4">
+        <v>7.4888880000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>144.67921999999999</v>
       </c>
@@ -520,8 +550,17 @@
       <c r="E5" s="2">
         <v>10.296944</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5">
+        <v>10.767128</v>
+      </c>
+      <c r="G5">
+        <v>8.5706430000000005</v>
+      </c>
+      <c r="H5">
+        <v>7.4482249999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>144.83310700000001</v>
       </c>
@@ -537,8 +576,17 @@
       <c r="E6" s="2">
         <v>10.244574999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6">
+        <v>10.945178</v>
+      </c>
+      <c r="G6">
+        <v>8.5990020000000005</v>
+      </c>
+      <c r="H6">
+        <v>7.155856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>144.72927200000001</v>
       </c>
@@ -554,8 +602,17 @@
       <c r="E7" s="2">
         <v>10.225892</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7">
+        <v>10.794335</v>
+      </c>
+      <c r="G7">
+        <v>8.5672300000000003</v>
+      </c>
+      <c r="H7">
+        <v>7.1304379999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>144.67749499999999</v>
       </c>
@@ -571,8 +628,17 @@
       <c r="E8" s="2">
         <v>10.169905999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8">
+        <v>10.849694</v>
+      </c>
+      <c r="G8">
+        <v>8.5589980000000008</v>
+      </c>
+      <c r="H8">
+        <v>7.227595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>144.75439600000001</v>
       </c>
@@ -588,8 +654,17 @@
       <c r="E9" s="2">
         <v>10.231118</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9">
+        <v>10.903616</v>
+      </c>
+      <c r="G9">
+        <v>8.4926879999999993</v>
+      </c>
+      <c r="H9">
+        <v>7.361364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>144.66944899999999</v>
       </c>
@@ -605,8 +680,17 @@
       <c r="E10" s="2">
         <v>10.259917</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10">
+        <v>10.83319</v>
+      </c>
+      <c r="G10">
+        <v>8.610989</v>
+      </c>
+      <c r="H10">
+        <v>7.5399700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>144.93324000000001</v>
       </c>
@@ -622,8 +706,17 @@
       <c r="E11" s="2">
         <v>10.153103</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="18">
+      <c r="F11">
+        <v>10.864084</v>
+      </c>
+      <c r="G11">
+        <v>8.6026410000000002</v>
+      </c>
+      <c r="H11">
+        <v>7.6326910000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="3">
         <f t="shared" ref="A12:C12" si="0">AVERAGE(A2:A11)</f>
         <v>144.73858520000002</v>
@@ -644,13 +737,17 @@
         <f>AVERAGE(E2:E11)</f>
         <v>10.2285562</v>
       </c>
-      <c r="F12" s="3" t="e">
-        <f t="shared" ref="F12:G12" si="1">AVERAGE(F2:F11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="3" t="e">
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:H12" si="1">AVERAGE(F2:F11)</f>
+        <v>10.831937100000001</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.5665672000000015</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4505726999999995</v>
       </c>
     </row>
   </sheetData>

--- a/project2/report/dados/Tempos.xlsx
+++ b/project2/report/dados/Tempos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\Documents\Escola\Engenharia Informática\5ºAno\1ºSemestre\Computação de Alto Desempenho\Projetos\ProjetosCAD\project2\report\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28804DBC-6C8B-4E05-AA16-EBCFFFC035F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA48617-8941-4F70-B640-40340FC6E473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6046D603-8F72-4B98-AF66-112E83401992}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6046D603-8F72-4B98-AF66-112E83401992}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -421,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A7B2A-1526-4CDB-84A6-7D06D3F4B75A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -753,4 +754,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4304992-5948-4A91-94A9-E819B43FBC29}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2">
+        <v>36.583480000000002</v>
+      </c>
+      <c r="D2">
+        <v>18.637854000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.958454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3">
+        <v>39.784987000000001</v>
+      </c>
+      <c r="D3">
+        <v>18.817319000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.154090999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4">
+        <v>36.541229999999999</v>
+      </c>
+      <c r="D4">
+        <v>18.762501</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.243605000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5">
+        <v>36.574778999999999</v>
+      </c>
+      <c r="D5">
+        <v>18.630386000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10.212476000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6">
+        <v>36.531529999999997</v>
+      </c>
+      <c r="D6">
+        <v>18.668659000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10.226668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7">
+        <v>37.978197000000002</v>
+      </c>
+      <c r="D7">
+        <v>20.350073999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10.195587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8">
+        <v>36.546042999999997</v>
+      </c>
+      <c r="D8">
+        <v>18.903769</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10.133849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9">
+        <v>36.649334000000003</v>
+      </c>
+      <c r="D9">
+        <v>18.781471</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10.116298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10">
+        <v>36.54712</v>
+      </c>
+      <c r="D10">
+        <v>18.798238000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10.154894000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11">
+        <v>36.612658000000003</v>
+      </c>
+      <c r="D11">
+        <v>18.745350999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10.223701999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
+      <c r="A12" s="3" t="e">
+        <f t="shared" ref="A12:C12" si="0">AVERAGE(A2:A11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>37.034935800000007</v>
+      </c>
+      <c r="D12" s="3">
+        <f>AVERAGE(D2:D11)</f>
+        <v>18.909562200000003</v>
+      </c>
+      <c r="E12" s="3">
+        <f>AVERAGE(E2:E11)</f>
+        <v>10.2619624</v>
+      </c>
+      <c r="F12" s="3" t="e">
+        <f t="shared" ref="F12:H12" si="1">AVERAGE(F2:F11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project2/report/dados/Tempos.xlsx
+++ b/project2/report/dados/Tempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\Documents\Escola\Engenharia Informática\5ºAno\1ºSemestre\Computação de Alto Desempenho\Projetos\ProjetosCAD\project2\report\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA48617-8941-4F70-B640-40340FC6E473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6D234-965B-46EE-8F05-5AB3B48FB133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6046D603-8F72-4B98-AF66-112E83401992}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{6046D603-8F72-4B98-AF66-112E83401992}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -423,12 +423,15 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H12"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
@@ -761,12 +764,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
@@ -796,6 +800,12 @@
       </c>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2">
+        <v>144.08992000000001</v>
+      </c>
+      <c r="B2">
+        <v>71.686407000000003</v>
+      </c>
       <c r="C2">
         <v>36.583480000000002</v>
       </c>
@@ -805,8 +815,17 @@
       <c r="E2" s="2">
         <v>10.958454</v>
       </c>
+      <c r="F2">
+        <v>10.748645</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3">
+        <v>143.996533</v>
+      </c>
+      <c r="B3">
+        <v>71.851347000000004</v>
+      </c>
       <c r="C3">
         <v>39.784987000000001</v>
       </c>
@@ -816,8 +835,17 @@
       <c r="E3" s="2">
         <v>10.154090999999999</v>
       </c>
+      <c r="F3">
+        <v>10.815305</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4">
+        <v>144.071247</v>
+      </c>
+      <c r="B4">
+        <v>71.871187000000006</v>
+      </c>
       <c r="C4">
         <v>36.541229999999999</v>
       </c>
@@ -827,8 +855,17 @@
       <c r="E4" s="2">
         <v>10.243605000000001</v>
       </c>
+      <c r="F4">
+        <v>11.076917</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5">
+        <v>143.90678299999999</v>
+      </c>
+      <c r="B5">
+        <v>71.947545000000005</v>
+      </c>
       <c r="C5">
         <v>36.574778999999999</v>
       </c>
@@ -838,8 +875,17 @@
       <c r="E5" s="2">
         <v>10.212476000000001</v>
       </c>
+      <c r="F5">
+        <v>10.784288999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6">
+        <v>144.02180200000001</v>
+      </c>
+      <c r="B6">
+        <v>71.891101000000006</v>
+      </c>
       <c r="C6">
         <v>36.531529999999997</v>
       </c>
@@ -849,8 +895,17 @@
       <c r="E6" s="2">
         <v>10.226668</v>
       </c>
+      <c r="F6">
+        <v>10.741483000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7">
+        <v>144.08074300000001</v>
+      </c>
+      <c r="B7">
+        <v>71.899090999999999</v>
+      </c>
       <c r="C7">
         <v>37.978197000000002</v>
       </c>
@@ -860,8 +915,17 @@
       <c r="E7" s="2">
         <v>10.195587</v>
       </c>
+      <c r="F7">
+        <v>10.856598</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8">
+        <v>143.90524500000001</v>
+      </c>
+      <c r="B8">
+        <v>71.845116000000004</v>
+      </c>
       <c r="C8">
         <v>36.546042999999997</v>
       </c>
@@ -871,8 +935,17 @@
       <c r="E8" s="2">
         <v>10.133849</v>
       </c>
+      <c r="F8">
+        <v>10.726236999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9">
+        <v>144.05495999999999</v>
+      </c>
+      <c r="B9">
+        <v>71.968935000000002</v>
+      </c>
       <c r="C9">
         <v>36.649334000000003</v>
       </c>
@@ -882,8 +955,17 @@
       <c r="E9" s="2">
         <v>10.116298</v>
       </c>
+      <c r="F9">
+        <v>10.826860999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10">
+        <v>143.957424</v>
+      </c>
+      <c r="B10">
+        <v>71.965501000000003</v>
+      </c>
       <c r="C10">
         <v>36.54712</v>
       </c>
@@ -893,8 +975,17 @@
       <c r="E10" s="2">
         <v>10.154894000000001</v>
       </c>
+      <c r="F10">
+        <v>10.666575999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11">
+        <v>143.937318</v>
+      </c>
+      <c r="B11">
+        <v>71.886577000000003</v>
+      </c>
       <c r="C11">
         <v>36.612658000000003</v>
       </c>
@@ -904,15 +995,18 @@
       <c r="E11" s="2">
         <v>10.223701999999999</v>
       </c>
+      <c r="F11">
+        <v>10.711746</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="3" t="e">
+      <c r="A12" s="3">
         <f t="shared" ref="A12:C12" si="0">AVERAGE(A2:A11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B12" s="3" t="e">
+        <v>144.00219749999999</v>
+      </c>
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>71.881280700000005</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
@@ -926,9 +1020,9 @@
         <f>AVERAGE(E2:E11)</f>
         <v>10.2619624</v>
       </c>
-      <c r="F12" s="3" t="e">
+      <c r="F12" s="3">
         <f t="shared" ref="F12:H12" si="1">AVERAGE(F2:F11)</f>
-        <v>#DIV/0!</v>
+        <v>10.795465699999999</v>
       </c>
       <c r="G12" s="3" t="e">
         <f t="shared" si="1"/>

--- a/project2/report/dados/Tempos.xlsx
+++ b/project2/report/dados/Tempos.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\Documents\Escola\Engenharia Informática\5ºAno\1ºSemestre\Computação de Alto Desempenho\Projetos\ProjetosCAD\project2\report\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6D234-965B-46EE-8F05-5AB3B48FB133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAEA098-04CE-43CB-95A1-14873F6ADE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{6046D603-8F72-4B98-AF66-112E83401992}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6046D603-8F72-4B98-AF66-112E83401992}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
-    <sheet name="V2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +35,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Com outputEvery=100</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +89,36 @@
       <color rgb="FF000000"/>
       <name val="System-ui"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -85,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -93,22 +142,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +423,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,620 +719,936 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A7B2A-1526-4CDB-84A6-7D06D3F4B75A}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="11.7109375" style="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A1" s="14">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="15">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="15">
         <v>4</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="15">
         <v>8</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="15">
         <v>16</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="15">
         <v>17</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="15">
         <v>32</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="15">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+      <c r="I1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="15">
+        <v>32</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A2" s="16">
         <v>144.62270000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>72.219842</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>36.89808</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>18.857019000000001</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>10.235559</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="12">
         <v>10.797729</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <v>8.6426719999999992</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="12">
         <v>7.5365580000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="I2" s="19"/>
+      <c r="K2" s="12">
+        <v>8.5520270000000007</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A3" s="16">
         <v>144.83444399999999</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="12">
         <v>72.268099000000007</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <v>37.987648999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>18.859089000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="13">
         <v>10.309411000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="12">
         <v>10.795088</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <v>8.5726130000000005</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>7.9841420000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="I3" s="19"/>
+      <c r="K3" s="12">
+        <v>8.4116999999999997</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="N3" s="7">
+        <v>14.304002000000001</v>
+      </c>
+      <c r="O3" s="4">
+        <v>14.041293</v>
+      </c>
+      <c r="P3" s="3">
+        <v>8.0342719999999996</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>8.4153819999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A4" s="16">
         <v>144.65252899999999</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>72.283548999999994</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>36.676251000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>18.768293</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="13">
         <v>10.159136999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <v>10.769329000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>8.4481959999999994</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <v>7.4888880000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="I4" s="19"/>
+      <c r="K4" s="12">
+        <v>8.5046409999999995</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="N4" s="7">
+        <v>14.095658999999999</v>
+      </c>
+      <c r="O4" s="4">
+        <v>14.257479999999999</v>
+      </c>
+      <c r="P4" s="3">
+        <v>8.0139700000000005</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>8.008896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A5" s="16">
         <v>144.67921999999999</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>72.210987000000003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>36.778319000000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <v>18.745484999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>10.296944</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>10.767128</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>8.5706430000000005</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <v>7.4482249999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="I5" s="19"/>
+      <c r="K5" s="12">
+        <v>8.472232</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="N5" s="7">
+        <v>13.631627999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>14.185218000000001</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7.9632909999999999</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>7.9517749999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A6" s="16">
         <v>144.83310700000001</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>72.189167999999995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <v>36.782226999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <v>18.947195000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="13">
         <v>10.244574999999999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="12">
         <v>10.945178</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <v>8.5990020000000005</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12">
         <v>7.155856</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="I6" s="19"/>
+      <c r="K6" s="12">
+        <v>8.5403959999999994</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="N6" s="7">
+        <v>14.413226</v>
+      </c>
+      <c r="O6" s="3">
+        <v>13.756262</v>
+      </c>
+      <c r="P6" s="3">
+        <v>8.1281909999999993</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>8.0801470000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A7" s="16">
         <v>144.72927200000001</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>72.180042999999998</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <v>37.124844000000003</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>18.837510999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="13">
         <v>10.225892</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <v>10.794335</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>8.5672300000000003</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="12">
         <v>7.1304379999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="I7" s="19"/>
+      <c r="K7" s="12">
+        <v>8.5341179999999994</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="N7" s="7">
+        <v>14.035695</v>
+      </c>
+      <c r="O7" s="3">
+        <v>13.884909</v>
+      </c>
+      <c r="P7" s="3">
+        <v>8.1425289999999997</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>8.0880530000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A8" s="16">
         <v>144.67749499999999</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>72.239357999999996</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>36.631416000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="12">
         <v>18.756557000000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="13">
         <v>10.169905999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="12">
         <v>10.849694</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>8.5589980000000008</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <v>7.227595</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="I8" s="19"/>
+      <c r="K8" s="12">
+        <v>8.4591440000000002</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="N8" s="7">
+        <v>13.727199000000001</v>
+      </c>
+      <c r="O8" s="3">
+        <v>13.492528999999999</v>
+      </c>
+      <c r="P8" s="3">
+        <v>8.1237119999999994</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>8.4377239999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A9" s="16">
         <v>144.75439600000001</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>72.284508000000002</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>36.749647000000003</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>18.879413</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="13">
         <v>10.231118</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="12">
         <v>10.903616</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <v>8.4926879999999993</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="12">
         <v>7.361364</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="I9" s="19"/>
+      <c r="K9" s="12">
+        <v>8.5197990000000008</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="N9" s="7">
+        <v>13.575288</v>
+      </c>
+      <c r="O9" s="3">
+        <v>14.3119</v>
+      </c>
+      <c r="P9" s="3">
+        <v>8.0892149999999994</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>8.4577690000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A10" s="16">
         <v>144.66944899999999</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <v>72.221324999999993</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <v>36.684683999999997</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>18.833251000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="13">
         <v>10.259917</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <v>10.83319</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <v>8.610989</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="12">
         <v>7.5399700000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="I10" s="19"/>
+      <c r="K10" s="12">
+        <v>8.5739459999999994</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="N10" s="7">
+        <v>13.90663</v>
+      </c>
+      <c r="O10" s="3">
+        <v>13.997711000000001</v>
+      </c>
+      <c r="P10" s="3">
+        <v>8.1282599999999992</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>7.8914780000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A11" s="16">
         <v>144.93324000000001</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>72.129985000000005</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>36.892035</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>18.842777000000002</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="13">
         <v>10.153103</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <v>10.864084</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <v>8.6026410000000002</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>7.6326910000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="3">
+      <c r="I11" s="19"/>
+      <c r="K11" s="12">
+        <v>8.6588910000000006</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="N11" s="7">
+        <v>13.903102000000001</v>
+      </c>
+      <c r="O11" s="3">
+        <v>14.333295</v>
+      </c>
+      <c r="P11" s="3">
+        <v>8.1152470000000001</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>7.9487259999999997</v>
+      </c>
+      <c r="AC11" s="17"/>
+    </row>
+    <row r="12" spans="1:29" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A12" s="9">
         <f t="shared" ref="A12:C12" si="0">AVERAGE(A2:A11)</f>
         <v>144.73858520000002</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>72.222686400000001</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>36.920515199999997</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="10">
         <f>AVERAGE(D2:D11)</f>
         <v>18.832659000000003</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="10">
         <f>AVERAGE(E2:E11)</f>
         <v>10.2285562</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="10">
         <f t="shared" ref="F12:H12" si="1">AVERAGE(F2:F11)</f>
         <v>10.831937100000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="10">
         <f t="shared" si="1"/>
         <v>8.5665672000000015</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>7.4505726999999995</v>
       </c>
+      <c r="I12" s="20"/>
+      <c r="K12" s="10">
+        <f t="shared" ref="K12" si="2">AVERAGE(K2:K11)</f>
+        <v>8.5226894000000009</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="N12" s="7">
+        <v>13.902122</v>
+      </c>
+      <c r="O12" s="3">
+        <v>14.390853</v>
+      </c>
+      <c r="P12" s="3">
+        <v>8.1372669999999996</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>7.927289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="21.95" customHeight="1" thickBot="1">
+      <c r="N13" s="9">
+        <f>AVERAGE(N3:N12)</f>
+        <v>13.9494551</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" ref="O13:Q13" si="3">AVERAGE(O3:O12)</f>
+        <v>14.065144999999998</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="3"/>
+        <v>8.0875953999999979</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="3"/>
+        <v>8.1207238999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15">
+        <v>17</v>
+      </c>
+      <c r="G14" s="15">
+        <v>32</v>
+      </c>
+      <c r="H14" s="15">
+        <v>48</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15">
+        <v>32</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A15" s="16">
+        <v>144.08992000000001</v>
+      </c>
+      <c r="B15" s="12">
+        <v>71.686407000000003</v>
+      </c>
+      <c r="C15" s="12">
+        <v>36.583480000000002</v>
+      </c>
+      <c r="D15" s="12">
+        <v>18.637854000000001</v>
+      </c>
+      <c r="E15" s="13">
+        <v>10.958454</v>
+      </c>
+      <c r="F15" s="12">
+        <v>10.748645</v>
+      </c>
+      <c r="G15" s="12">
+        <v>8.4504169999999998</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="19"/>
+      <c r="K15" s="12">
+        <v>8.4436689999999999</v>
+      </c>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A16" s="16">
+        <v>143.996533</v>
+      </c>
+      <c r="B16" s="12">
+        <v>71.851347000000004</v>
+      </c>
+      <c r="C16" s="12">
+        <v>39.784987000000001</v>
+      </c>
+      <c r="D16" s="12">
+        <v>18.817319000000001</v>
+      </c>
+      <c r="E16" s="13">
+        <v>10.154090999999999</v>
+      </c>
+      <c r="F16" s="12">
+        <v>10.815305</v>
+      </c>
+      <c r="G16" s="12">
+        <v>8.5855490000000003</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="19"/>
+      <c r="K16" s="12">
+        <v>8.4854210000000005</v>
+      </c>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A17" s="16">
+        <v>144.071247</v>
+      </c>
+      <c r="B17" s="12">
+        <v>71.871187000000006</v>
+      </c>
+      <c r="C17" s="12">
+        <v>36.541229999999999</v>
+      </c>
+      <c r="D17" s="12">
+        <v>18.762501</v>
+      </c>
+      <c r="E17" s="13">
+        <v>10.243605000000001</v>
+      </c>
+      <c r="F17" s="12">
+        <v>11.076917</v>
+      </c>
+      <c r="G17" s="12">
+        <v>8.4116850000000003</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="19"/>
+      <c r="K17" s="12">
+        <v>8.5883730000000007</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A18" s="16">
+        <v>143.90678299999999</v>
+      </c>
+      <c r="B18" s="12">
+        <v>71.947545000000005</v>
+      </c>
+      <c r="C18" s="12">
+        <v>36.574778999999999</v>
+      </c>
+      <c r="D18" s="12">
+        <v>18.630386000000001</v>
+      </c>
+      <c r="E18" s="13">
+        <v>10.212476000000001</v>
+      </c>
+      <c r="F18" s="12">
+        <v>10.784288999999999</v>
+      </c>
+      <c r="G18" s="12">
+        <v>8.5141620000000007</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="19"/>
+      <c r="K18" s="12">
+        <v>8.5689019999999996</v>
+      </c>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A19" s="16">
+        <v>144.02180200000001</v>
+      </c>
+      <c r="B19" s="12">
+        <v>71.891101000000006</v>
+      </c>
+      <c r="C19" s="12">
+        <v>36.531529999999997</v>
+      </c>
+      <c r="D19" s="12">
+        <v>18.668659000000002</v>
+      </c>
+      <c r="E19" s="13">
+        <v>10.226668</v>
+      </c>
+      <c r="F19" s="12">
+        <v>10.741483000000001</v>
+      </c>
+      <c r="G19" s="12">
+        <v>8.4357799999999994</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="19"/>
+      <c r="K19" s="12">
+        <v>8.5527040000000003</v>
+      </c>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A20" s="16">
+        <v>144.08074300000001</v>
+      </c>
+      <c r="B20" s="12">
+        <v>71.899090999999999</v>
+      </c>
+      <c r="C20" s="12">
+        <v>37.978197000000002</v>
+      </c>
+      <c r="D20" s="12">
+        <v>20.350073999999999</v>
+      </c>
+      <c r="E20" s="13">
+        <v>10.195587</v>
+      </c>
+      <c r="F20" s="12">
+        <v>10.856598</v>
+      </c>
+      <c r="G20" s="12">
+        <v>8.4932700000000008</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="19"/>
+      <c r="K20" s="12">
+        <v>8.6681989999999995</v>
+      </c>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A21" s="16">
+        <v>143.90524500000001</v>
+      </c>
+      <c r="B21" s="12">
+        <v>71.845116000000004</v>
+      </c>
+      <c r="C21" s="12">
+        <v>36.546042999999997</v>
+      </c>
+      <c r="D21" s="12">
+        <v>18.903769</v>
+      </c>
+      <c r="E21" s="13">
+        <v>10.133849</v>
+      </c>
+      <c r="F21" s="12">
+        <v>10.726236999999999</v>
+      </c>
+      <c r="G21" s="12">
+        <v>8.6893469999999997</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="19"/>
+      <c r="K21" s="12">
+        <v>8.5878420000000002</v>
+      </c>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A22" s="16">
+        <v>144.05495999999999</v>
+      </c>
+      <c r="B22" s="12">
+        <v>71.968935000000002</v>
+      </c>
+      <c r="C22" s="12">
+        <v>36.649334000000003</v>
+      </c>
+      <c r="D22" s="12">
+        <v>18.781471</v>
+      </c>
+      <c r="E22" s="13">
+        <v>10.116298</v>
+      </c>
+      <c r="F22" s="12">
+        <v>10.826860999999999</v>
+      </c>
+      <c r="G22" s="12">
+        <v>8.3517019999999995</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="19"/>
+      <c r="K22" s="12">
+        <v>8.4443079999999995</v>
+      </c>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A23" s="16">
+        <v>143.957424</v>
+      </c>
+      <c r="B23" s="12">
+        <v>71.965501000000003</v>
+      </c>
+      <c r="C23" s="12">
+        <v>36.54712</v>
+      </c>
+      <c r="D23" s="12">
+        <v>18.798238000000001</v>
+      </c>
+      <c r="E23" s="13">
+        <v>10.154894000000001</v>
+      </c>
+      <c r="F23" s="12">
+        <v>10.666575999999999</v>
+      </c>
+      <c r="G23" s="12">
+        <v>8.4708260000000006</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="19"/>
+      <c r="K23" s="12">
+        <v>8.4863040000000005</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A24" s="16">
+        <v>143.937318</v>
+      </c>
+      <c r="B24" s="12">
+        <v>71.886577000000003</v>
+      </c>
+      <c r="C24" s="12">
+        <v>36.612658000000003</v>
+      </c>
+      <c r="D24" s="12">
+        <v>18.745350999999999</v>
+      </c>
+      <c r="E24" s="13">
+        <v>10.223701999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <v>10.711746</v>
+      </c>
+      <c r="G24" s="12">
+        <v>8.6720570000000006</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="19"/>
+      <c r="K24" s="12">
+        <v>8.4094499999999996</v>
+      </c>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:15" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A25" s="9">
+        <f t="shared" ref="A25:C25" si="4">AVERAGE(A15:A24)</f>
+        <v>144.00219749999999</v>
+      </c>
+      <c r="B25" s="10">
+        <f t="shared" si="4"/>
+        <v>71.881280700000005</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="4"/>
+        <v>37.034935800000007</v>
+      </c>
+      <c r="D25" s="10">
+        <f>AVERAGE(D15:D24)</f>
+        <v>18.909562200000003</v>
+      </c>
+      <c r="E25" s="10">
+        <f>AVERAGE(E15:E24)</f>
+        <v>10.2619624</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" ref="F25:H25" si="5">AVERAGE(F15:F24)</f>
+        <v>10.795465699999999</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="5"/>
+        <v>8.5074794999999988</v>
+      </c>
+      <c r="H25" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="K25" s="10">
+        <f t="shared" ref="K25" si="6">AVERAGE(K15:K24)</f>
+        <v>8.5235172000000006</v>
+      </c>
+      <c r="L25" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4304992-5948-4A91-94A9-E819B43FBC29}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>144.08992000000001</v>
-      </c>
-      <c r="B2">
-        <v>71.686407000000003</v>
-      </c>
-      <c r="C2">
-        <v>36.583480000000002</v>
-      </c>
-      <c r="D2">
-        <v>18.637854000000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10.958454</v>
-      </c>
-      <c r="F2">
-        <v>10.748645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>143.996533</v>
-      </c>
-      <c r="B3">
-        <v>71.851347000000004</v>
-      </c>
-      <c r="C3">
-        <v>39.784987000000001</v>
-      </c>
-      <c r="D3">
-        <v>18.817319000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10.154090999999999</v>
-      </c>
-      <c r="F3">
-        <v>10.815305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>144.071247</v>
-      </c>
-      <c r="B4">
-        <v>71.871187000000006</v>
-      </c>
-      <c r="C4">
-        <v>36.541229999999999</v>
-      </c>
-      <c r="D4">
-        <v>18.762501</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10.243605000000001</v>
-      </c>
-      <c r="F4">
-        <v>11.076917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>143.90678299999999</v>
-      </c>
-      <c r="B5">
-        <v>71.947545000000005</v>
-      </c>
-      <c r="C5">
-        <v>36.574778999999999</v>
-      </c>
-      <c r="D5">
-        <v>18.630386000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10.212476000000001</v>
-      </c>
-      <c r="F5">
-        <v>10.784288999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>144.02180200000001</v>
-      </c>
-      <c r="B6">
-        <v>71.891101000000006</v>
-      </c>
-      <c r="C6">
-        <v>36.531529999999997</v>
-      </c>
-      <c r="D6">
-        <v>18.668659000000002</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10.226668</v>
-      </c>
-      <c r="F6">
-        <v>10.741483000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>144.08074300000001</v>
-      </c>
-      <c r="B7">
-        <v>71.899090999999999</v>
-      </c>
-      <c r="C7">
-        <v>37.978197000000002</v>
-      </c>
-      <c r="D7">
-        <v>20.350073999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.195587</v>
-      </c>
-      <c r="F7">
-        <v>10.856598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>143.90524500000001</v>
-      </c>
-      <c r="B8">
-        <v>71.845116000000004</v>
-      </c>
-      <c r="C8">
-        <v>36.546042999999997</v>
-      </c>
-      <c r="D8">
-        <v>18.903769</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10.133849</v>
-      </c>
-      <c r="F8">
-        <v>10.726236999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>144.05495999999999</v>
-      </c>
-      <c r="B9">
-        <v>71.968935000000002</v>
-      </c>
-      <c r="C9">
-        <v>36.649334000000003</v>
-      </c>
-      <c r="D9">
-        <v>18.781471</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10.116298</v>
-      </c>
-      <c r="F9">
-        <v>10.826860999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>143.957424</v>
-      </c>
-      <c r="B10">
-        <v>71.965501000000003</v>
-      </c>
-      <c r="C10">
-        <v>36.54712</v>
-      </c>
-      <c r="D10">
-        <v>18.798238000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10.154894000000001</v>
-      </c>
-      <c r="F10">
-        <v>10.666575999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>143.937318</v>
-      </c>
-      <c r="B11">
-        <v>71.886577000000003</v>
-      </c>
-      <c r="C11">
-        <v>36.612658000000003</v>
-      </c>
-      <c r="D11">
-        <v>18.745350999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10.223701999999999</v>
-      </c>
-      <c r="F11">
-        <v>10.711746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="3">
-        <f t="shared" ref="A12:C12" si="0">AVERAGE(A2:A11)</f>
-        <v>144.00219749999999</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>71.881280700000005</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>37.034935800000007</v>
-      </c>
-      <c r="D12" s="3">
-        <f>AVERAGE(D2:D11)</f>
-        <v>18.909562200000003</v>
-      </c>
-      <c r="E12" s="3">
-        <f>AVERAGE(E2:E11)</f>
-        <v>10.2619624</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ref="F12:H12" si="1">AVERAGE(F2:F11)</f>
-        <v>10.795465699999999</v>
-      </c>
-      <c r="G12" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L14:L25"/>
+    <mergeCell ref="I1:I12"/>
+    <mergeCell ref="I14:I25"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="L1:L12"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>